--- a/rawdata/Segments.xlsx
+++ b/rawdata/Segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA4777-867D-42A5-BB77-8D0A610B9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521A87F-4864-4A9C-A3A6-C03F68BD2CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>Line</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>To Milepost</t>
+  </si>
+  <si>
+    <t>Track</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,39 +504,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>220077</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>209617</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>10460</v>
@@ -547,19 +547,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>209617</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>197546</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>12071</v>
@@ -570,19 +570,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>197546</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>175418</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>22128</v>
@@ -593,19 +593,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>175418</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>161739</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>13679</v>
@@ -616,19 +616,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>161739</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>161336.33499999999</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>402.66500000000002</v>
@@ -639,19 +639,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>161336.33499999999</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>144261</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>17075.334999999999</v>
@@ -662,19 +662,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>144261</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>126558</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>17703</v>
@@ -685,19 +685,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>126558</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>113056</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>13502</v>
@@ -708,19 +708,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>113056</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>84716</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>28340</v>
@@ -731,19 +731,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>84716</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>70006</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>14710</v>
@@ -754,19 +754,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>70006</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>46269</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>23737</v>
@@ -777,19 +777,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>46269</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>35003</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>11266</v>
@@ -800,19 +800,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>35003</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>28163</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>6840</v>
@@ -823,94 +823,94 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>28163</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>22128</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>6035</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>22128</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>4426</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>17702</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>4426</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1600</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>2826</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1600</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>1600</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata/Segments.xlsx
+++ b/rawdata/Segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521A87F-4864-4A9C-A3A6-C03F68BD2CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDB1E6-4525-4AFF-A6A3-B0CA7873A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>From</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Track</t>
+  </si>
+  <si>
+    <t>Sligo Loop</t>
   </si>
 </sst>
 </file>
@@ -155,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68077957-244A-425C-9655-A64E69CC14F9}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,346 +526,365 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>220077</v>
+      <c r="B2" s="1">
+        <v>217663.23499999999</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>217260.9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2-D2</f>
+        <v>402.33499999999185</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>217260.9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>209617</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>10460</v>
-      </c>
-      <c r="G2">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="1">
+        <v>207202.52499999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F19" si="0">B3-D3</f>
+        <v>10058.375</v>
+      </c>
+      <c r="G3">
+        <f>H2-G2</f>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>209617</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1">
+        <v>207202.52499999999</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>197546</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>12071</v>
-      </c>
-      <c r="G3">
+      <c r="D4" s="1">
+        <v>195132.47500000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>12070.049999999988</v>
+      </c>
+      <c r="G4">
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>197546</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1">
+        <v>195132.47500000001</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>175418</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>22128</v>
-      </c>
-      <c r="G4">
+      <c r="D5" s="1">
+        <v>173004.05000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>22128.424999999988</v>
+      </c>
+      <c r="G5">
         <v>832</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>175418</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1">
+        <v>173004.05000000002</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>161739</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>13679</v>
-      </c>
-      <c r="G5">
+      <c r="D6" s="1">
+        <v>159324.66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>13679.390000000014</v>
+      </c>
+      <c r="G6">
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>161739</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="1">
+        <v>159324.66</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>161336.33499999999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>402.66500000000002</v>
-      </c>
-      <c r="G6">
+      <c r="D7" s="1">
+        <v>158922.32500000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>402.33499999999185</v>
+      </c>
+      <c r="G7">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>161336.33499999999</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="1">
+        <v>158922.32500000001</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>144261</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>17075.334999999999</v>
-      </c>
-      <c r="G7">
+      <c r="D8" s="1">
+        <v>142024.255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>16898.070000000007</v>
+      </c>
+      <c r="G8">
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>144261</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="1">
+        <v>142024.255</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>126558</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>17703</v>
-      </c>
-      <c r="G8">
+      <c r="D9" s="1">
+        <v>124321.515</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>17702.740000000005</v>
+      </c>
+      <c r="G9">
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>126558</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="1">
+        <v>124321.515</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>113056</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>13502</v>
-      </c>
-      <c r="G9">
+      <c r="D10" s="1">
+        <v>104204.765</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>20116.75</v>
+      </c>
+      <c r="G10">
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>113056</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="1">
+        <v>104204.765</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>84716</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>28340</v>
-      </c>
-      <c r="G10">
+      <c r="D11" s="1">
+        <v>82478.674999999988</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>21726.090000000011</v>
+      </c>
+      <c r="G11">
         <v>1045</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>84716</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="1">
+        <v>82478.674999999988</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>70006</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>14710</v>
-      </c>
-      <c r="G11">
+      <c r="D12" s="1">
+        <v>68799.285000000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>13679.389999999985</v>
+      </c>
+      <c r="G12">
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>70006</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="1">
+        <v>68799.285000000003</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>46269</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>23737</v>
-      </c>
-      <c r="G12">
+      <c r="D13" s="1">
+        <v>43854.514999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>24944.770000000004</v>
+      </c>
+      <c r="G13">
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>46269</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="1">
+        <v>43854.514999999999</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>35003</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>11266</v>
-      </c>
-      <c r="G13">
+      <c r="D14" s="1">
+        <v>32589.134999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>11265.380000000001</v>
+      </c>
+      <c r="G14">
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>35003</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="1">
+        <v>32589.134999999998</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>28163</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>6840</v>
-      </c>
-      <c r="G14">
+      <c r="D15" s="1">
+        <v>25749.439999999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>6839.6949999999997</v>
+      </c>
+      <c r="G15">
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>28163</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="1">
+        <v>25749.439999999999</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>22128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>6035</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>22128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>4426</v>
+      <c r="D16" s="1">
+        <v>19714.414999999997</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>17702</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>6035.0250000000015</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -869,22 +892,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19714.414999999997</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>4426</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>1600</v>
+      <c r="D17" s="1">
+        <v>4425.6849999999995</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17">
-        <v>2826</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>15288.729999999998</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -892,24 +916,49 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4425.6849999999995</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>1600</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>1609.34</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18">
-        <v>1600</v>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>2816.3449999999993</v>
       </c>
       <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1609.34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1609.34</v>
+      </c>
+      <c r="G19" t="s">
         <v>21</v>
       </c>
     </row>
